--- a/ЗАВОДЫ/МИРАТОРГ/2025/05,25/26,05,25 Мираторг КИ Ташкент/дв 26,05,25 тшрсч мртрг ки от Лыгина.xlsx
+++ b/ЗАВОДЫ/МИРАТОРГ/2025/05,25/26,05,25 Мираторг КИ Ташкент/дв 26,05,25 тшрсч мртрг ки от Лыгина.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\26,05,25 Мираторг КИ Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\МИРАТОРГ\2025\05,25\26,05,25 Мираторг КИ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E59B80-F846-4BD6-9381-E8438C7EB9D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDFB417-6EEA-4F9D-812F-CC80DBC27B92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4407,7 +4407,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T31" sqref="T31"/>
+      <selection pane="bottomRight" activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
